--- a/medicine/Handicap/Déclaration_des_droits_du_déficient_mental/Déclaration_des_droits_du_déficient_mental.xlsx
+++ b/medicine/Handicap/Déclaration_des_droits_du_déficient_mental/Déclaration_des_droits_du_déficient_mental.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_des_droits_du_d%C3%A9ficient_mental</t>
+          <t>Déclaration_des_droits_du_déficient_mental</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Déclaration des droits du déficient mental est une déclaration de droits adoptée dans le cadre de l'Organisation des Nations unies (ONU) dans le but d'apporter une protection particulière aux déficients mentaux.
  Portail de l’Organisation des Nations unies   Portail du droit   Portail du handicap                   </t>
